--- a/pdfs/output/extracted_data_invsam.xlsx
+++ b/pdfs/output/extracted_data_invsam.xlsx
@@ -474,7 +474,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/pdfs/output/extracted_data_invsam.xlsx
+++ b/pdfs/output/extracted_data_invsam.xlsx
@@ -474,7 +474,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>to</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -499,7 +499,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>MonicaBelluca Invoice 12345
+SantaMaraOffice5thFloor Date 01/02/2025
+NewYorkCity
+O2344567-MonicaBellemail.com
+Ol Aquarius 50.00 2 100.00
+O2 Gemini 50.00 2 100.00
+O03 Capricorn 50.00 2 100.00
+O4 Sagitarius 50.00 2 100.00
+O05 Cassiopeia 50.00 2 100.00
+Total 180.00
+PaymenitInfo
+Tax 0.00
+Account O01-234-5567-889
+AccountName JonathanMarc
+BankDeitails DetailisHere AmountDue 3180.00
+TermsCondition
+Aquariusisoneoftheoldest
+constellations.Itsname
+meanswaterbearer,and
+itssymbolisa AuthorisedSign
+2Seae 9elSt. Painyemiallicor</t>
         </is>
       </c>
       <c r="G2" t="b">
